--- a/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R03A 清洁分切生产记录表.xlsx
+++ b/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R03A 清洁分切生产记录表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>SOP-MFG-302-R03A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,35 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>废品重量：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  kg</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>膜卷批号-卷号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -480,35 +451,6 @@
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合格□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不合格□</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -796,6 +738,39 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">                         </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>废品重量：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  kg</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -864,18 +839,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -1014,7 +983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1037,9 +1006,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1053,15 +1019,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,6 +1083,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1431,28 +1394,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.2" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="22.375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="9" customWidth="1"/>
-    <col min="9" max="9" width="24.25" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="9"/>
+    <col min="2" max="2" width="6" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="9" customWidth="1"/>
+    <col min="10" max="10" width="24.25" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="24.2" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="24.2" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
@@ -1460,281 +1424,285 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="42.2" customHeight="1">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="42.2" customHeight="1">
+      <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:10" s="7" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="37"/>
+    </row>
+    <row r="4" spans="1:10" s="8" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="26" t="s">
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A12" s="10">
+        <v>8</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="10"/>
+      <c r="B13" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="29" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="14" t="s">
+    <row r="14" spans="1:10" ht="21" customHeight="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>22</v>
-      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="30"/>
     </row>
-    <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A5" s="11">
+    <row r="15" spans="1:10" ht="36.75" customHeight="1">
+      <c r="A15" s="28"/>
+      <c r="B15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A16" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A6" s="11">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A7" s="11">
-        <v>3</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A8" s="11">
+    <row r="17" spans="1:10" ht="30" customHeight="1">
+      <c r="A17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A9" s="11">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A10" s="11">
-        <v>6</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A11" s="11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A12" s="11">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1">
-      <c r="A13" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="21" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="1:9" ht="36.75" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="35"/>
-    </row>
-    <row r="16" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A16" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1">
-      <c r="A17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B15:H15"/>
+  <mergeCells count="12">
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B15:I15"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R03A 清洁分切生产记录表.xlsx
+++ b/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R03A 清洁分切生产记录表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>SOP-MFG-302-R03A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,10 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物料代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1.</t>
     </r>
@@ -742,10 +738,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -772,14 +764,18 @@
       </rPr>
       <t xml:space="preserve">  kg</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1108,7 +1104,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1394,28 +1390,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="24.2" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="6" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="22.375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="9"/>
+    <col min="2" max="2" width="17.125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="9" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="9" customWidth="1"/>
+    <col min="9" max="9" width="24.25" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="24.2" customHeight="1">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
@@ -1424,14 +1419,13 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="42.2" customHeight="1">
+    <row r="2" spans="1:9" s="6" customFormat="1" ht="42.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
@@ -1443,9 +1437,8 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" ht="27.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
@@ -1453,17 +1446,16 @@
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="36" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="37"/>
-    </row>
-    <row r="4" spans="1:10" s="8" customFormat="1" ht="34.5" customHeight="1">
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
@@ -1471,51 +1463,47 @@
         <v>25</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>13</v>
       </c>
+      <c r="G4" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="24.75" customHeight="1">
+    <row r="5" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="G5" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="H5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" ht="24.75" customHeight="1">
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -1526,10 +1514,9 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" ht="24.75" customHeight="1">
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -1540,10 +1527,9 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" ht="24.75" customHeight="1">
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -1554,10 +1540,9 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" ht="24.75" customHeight="1">
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -1568,10 +1553,9 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" ht="24.75" customHeight="1">
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -1582,10 +1566,9 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" ht="24.75" customHeight="1">
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>7</v>
       </c>
@@ -1596,10 +1579,9 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" ht="24.75" customHeight="1">
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -1610,99 +1592,104 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A13" s="26" t="s">
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1">
-      <c r="A14" s="27"/>
       <c r="B14" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="15" t="s">
+      <c r="H14" s="34"/>
+      <c r="I14" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A16" s="35" t="s">
+    </row>
+    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R03A 清洁分切生产记录表.xlsx
+++ b/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R03A 清洁分切生产记录表.xlsx
@@ -774,8 +774,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -979,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1016,6 +1016,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1104,7 +1110,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1390,13 +1396,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.2" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="24.2" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.875" style="9" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="9" customWidth="1"/>
@@ -1410,7 +1416,7 @@
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="24.2" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
@@ -1425,44 +1431,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="42.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:9" s="6" customFormat="1" ht="42.2" customHeight="1">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="22" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="36" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="37"/>
+      <c r="I3" s="39"/>
     </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="34.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -1484,12 +1490,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="24.75" customHeight="1">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="14" t="s">
         <v>17</v>
       </c>
@@ -1503,12 +1509,10 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
+    <row r="6" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A6" s="10"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1516,12 +1520,10 @@
       <c r="H6" s="11"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>3</v>
-      </c>
+    <row r="7" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A7" s="10"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1529,12 +1531,10 @@
       <c r="H7" s="11"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>4</v>
-      </c>
+    <row r="8" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A8" s="10"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -1542,12 +1542,10 @@
       <c r="H8" s="11"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>5</v>
-      </c>
+    <row r="9" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A9" s="10"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -1555,12 +1553,10 @@
       <c r="H9" s="11"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>6</v>
-      </c>
+    <row r="10" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A10" s="10"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1568,12 +1564,10 @@
       <c r="H10" s="11"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>7</v>
-      </c>
+    <row r="11" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A11" s="10"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1581,12 +1575,10 @@
       <c r="H11" s="11"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
-        <v>8</v>
-      </c>
+    <row r="12" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A12" s="10"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -1594,101 +1586,90 @@
       <c r="H12" s="11"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="14"/>
+    <row r="13" spans="1:9" ht="32.25" customHeight="1">
+      <c r="A13" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="31" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="29" t="s">
-        <v>24</v>
-      </c>
+    <row r="14" spans="1:9" ht="21" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="32"/>
     </row>
-    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="30"/>
+    <row r="15" spans="1:9" ht="36.75" customHeight="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="33"/>
     </row>
-    <row r="16" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="31"/>
+    <row r="16" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A16" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+    <row r="17" spans="1:9" ht="30" customHeight="1">
+      <c r="A17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18" t="s">
+      <c r="F17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:I17"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A16:I16"/>
     <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R03A 清洁分切生产记录表.xlsx
+++ b/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R03A 清洁分切生产记录表.xlsx
@@ -979,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1005,9 +1005,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1017,9 +1014,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1090,6 +1084,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1398,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.2" customHeight="1"/>
@@ -1417,7 +1414,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="24.2" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
@@ -1432,43 +1429,43 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="42.2" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="24" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="38" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="39"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9" s="8" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -1477,7 +1474,7 @@
       <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -1486,7 +1483,7 @@
       <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1494,168 +1491,168 @@
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="24.75" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="24.75" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="24.75" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="24.75" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="24.75" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="24.75" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="24.75" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="32.25" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="31" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="34" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="36.75" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="33"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="12">
